--- a/tests/artifact/script/Mobile-Settings.xlsx
+++ b/tests/artifact/script/Mobile-Settings.xlsx
@@ -2529,7 +2529,7 @@
     <t>${org.Transaction}</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>$(array|length|${org.Transaction.TaxModeValue})</t>
@@ -10782,10 +10782,10 @@
   <sheetPr/>
   <dimension ref="A1:O295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/Mobile-Settings.xlsx
+++ b/tests/artifact/script/Mobile-Settings.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="1030">
   <si>
     <t>target</t>
   </si>
@@ -2698,6 +2698,9 @@
   </si>
   <si>
     <t>${GSTINValidate.Form}</t>
+  </si>
+  <si>
+    <t>4000</t>
   </si>
   <si>
     <t>Click on close button</t>
@@ -10782,10 +10785,10 @@
   <sheetPr/>
   <dimension ref="A1:O295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -12354,7 +12357,7 @@
         <v>871</v>
       </c>
       <c r="F58" s="68">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
@@ -12401,7 +12404,7 @@
         <v>714</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>805</v>
+        <v>874</v>
       </c>
       <c r="F60" s="67"/>
       <c r="G60" s="39"/>
@@ -12417,7 +12420,7 @@
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A61" s="53"/>
       <c r="B61" s="37" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>30</v>
@@ -12426,7 +12429,7 @@
         <v>576</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F61" s="68">
         <v>1000</v>
@@ -12444,7 +12447,7 @@
     <row r="62" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A62" s="43"/>
       <c r="B62" s="37" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>30</v>
@@ -12453,10 +12456,10 @@
         <v>563</v>
       </c>
       <c r="E62" s="67" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
@@ -12471,7 +12474,7 @@
     <row r="63" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A63" s="43"/>
       <c r="B63" s="37" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>30</v>
@@ -12480,7 +12483,7 @@
         <v>706</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F63" s="67" t="s">
         <v>869</v>
@@ -12498,7 +12501,7 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>30</v>
@@ -12507,7 +12510,7 @@
         <v>102</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F64" s="39" t="s">
         <v>859</v>
@@ -12527,7 +12530,7 @@
     <row r="65" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A65" s="43"/>
       <c r="B65" s="37" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>30</v>
@@ -12536,10 +12539,10 @@
         <v>706</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
@@ -12554,7 +12557,7 @@
     <row r="66" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A66" s="43"/>
       <c r="B66" s="37" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C66" s="38" t="s">
         <v>30</v>
@@ -12563,10 +12566,10 @@
         <v>706</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F66" s="60" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
@@ -12581,7 +12584,7 @@
     <row r="67" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A67" s="43"/>
       <c r="B67" s="37" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>30</v>
@@ -12590,10 +12593,10 @@
         <v>692</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
@@ -12608,7 +12611,7 @@
     <row r="68" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A68" s="43"/>
       <c r="B68" s="37" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>30</v>
@@ -12617,10 +12620,10 @@
         <v>706</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
@@ -12635,7 +12638,7 @@
     <row r="69" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A69" s="43"/>
       <c r="B69" s="37" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>30</v>
@@ -12644,7 +12647,7 @@
         <v>706</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F69" s="42">
         <v>400070</v>
@@ -12662,7 +12665,7 @@
     <row r="70" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A70" s="43"/>
       <c r="B70" s="37" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C70" s="38" t="s">
         <v>30</v>
@@ -12671,7 +12674,7 @@
         <v>706</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F70" s="42">
         <v>1234567890</v>
@@ -12689,7 +12692,7 @@
     <row r="71" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A71" s="43"/>
       <c r="B71" s="37" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C71" s="38" t="s">
         <v>30</v>
@@ -12698,7 +12701,7 @@
         <v>706</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F71" s="42">
         <v>1234567890</v>
@@ -12716,7 +12719,7 @@
     <row r="72" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A72" s="43"/>
       <c r="B72" s="37" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>30</v>
@@ -12725,10 +12728,10 @@
         <v>706</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F72" s="67" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
@@ -12743,7 +12746,7 @@
     <row r="73" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A73" s="43"/>
       <c r="B73" s="37" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>30</v>
@@ -12752,7 +12755,7 @@
         <v>576</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F73" s="67">
         <v>1000</v>
@@ -12770,7 +12773,7 @@
     <row r="74" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A74" s="43"/>
       <c r="B74" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>30</v>
@@ -12795,7 +12798,7 @@
     <row r="75" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A75" s="43"/>
       <c r="B75" s="37" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>30</v>
@@ -12804,7 +12807,7 @@
         <v>253</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F75" s="67"/>
       <c r="G75" s="39"/>
@@ -12820,7 +12823,7 @@
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A76" s="53"/>
       <c r="B76" s="37" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>30</v>
@@ -12829,7 +12832,7 @@
         <v>576</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F76" s="67">
         <v>1000</v>
@@ -12847,7 +12850,7 @@
     <row r="77" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A77" s="43"/>
       <c r="B77" s="37" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>30</v>
@@ -12856,10 +12859,10 @@
         <v>706</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F77" s="60" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
@@ -12874,7 +12877,7 @@
     <row r="78" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A78" s="43"/>
       <c r="B78" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>30</v>
@@ -12899,7 +12902,7 @@
     <row r="79" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A79" s="43"/>
       <c r="B79" s="37" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>30</v>
@@ -12908,7 +12911,7 @@
         <v>576</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F79" s="67">
         <v>1000</v>
@@ -12926,7 +12929,7 @@
     <row r="80" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A80" s="43"/>
       <c r="B80" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>30</v>
@@ -12951,7 +12954,7 @@
     <row r="81" s="4" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A81" s="53"/>
       <c r="B81" s="37" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>30</v>
@@ -12960,7 +12963,7 @@
         <v>706</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F81" s="67">
         <v>10</v>
@@ -12978,7 +12981,7 @@
     <row r="82" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A82" s="43"/>
       <c r="B82" s="55" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>30</v>
@@ -12987,7 +12990,7 @@
         <v>576</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F82" s="67">
         <v>1000</v>
@@ -13005,7 +13008,7 @@
     <row r="83" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A83" s="43"/>
       <c r="B83" s="55" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>30</v>
@@ -13014,7 +13017,7 @@
         <v>253</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F83" s="67"/>
       <c r="G83" s="39"/>
@@ -13030,7 +13033,7 @@
     <row r="84" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A84" s="43"/>
       <c r="B84" s="37" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>30</v>
@@ -13039,7 +13042,7 @@
         <v>576</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F84" s="67">
         <v>1000</v>
@@ -13057,7 +13060,7 @@
     <row r="85" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A85" s="43"/>
       <c r="B85" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>30</v>
@@ -13082,7 +13085,7 @@
     <row r="86" s="4" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A86" s="53"/>
       <c r="B86" s="37" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>30</v>
@@ -13091,7 +13094,7 @@
         <v>706</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F86" s="67">
         <v>20</v>
@@ -13109,7 +13112,7 @@
     <row r="87" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A87" s="43"/>
       <c r="B87" s="55" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>30</v>
@@ -13118,7 +13121,7 @@
         <v>576</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F87" s="67">
         <v>1000</v>
@@ -13136,7 +13139,7 @@
     <row r="88" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A88" s="43"/>
       <c r="B88" s="55" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>30</v>
@@ -13145,7 +13148,7 @@
         <v>366</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F88" s="67">
         <v>1000</v>
@@ -13163,7 +13166,7 @@
     <row r="89" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A89" s="43"/>
       <c r="B89" s="37" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>30</v>
@@ -13172,7 +13175,7 @@
         <v>576</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F89" s="67">
         <v>1000</v>
@@ -13190,7 +13193,7 @@
     <row r="90" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A90" s="43"/>
       <c r="B90" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>30</v>
@@ -13215,7 +13218,7 @@
     <row r="91" s="4" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A91" s="53"/>
       <c r="B91" s="37" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>30</v>
@@ -13224,7 +13227,7 @@
         <v>706</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F91" s="67">
         <v>30</v>
@@ -13242,7 +13245,7 @@
     <row r="92" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A92" s="43"/>
       <c r="B92" s="55" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>30</v>
@@ -13251,7 +13254,7 @@
         <v>576</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F92" s="67">
         <v>1000</v>
@@ -13269,7 +13272,7 @@
     <row r="93" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A93" s="43"/>
       <c r="B93" s="55" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>30</v>
@@ -13278,7 +13281,7 @@
         <v>253</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F93" s="67"/>
       <c r="G93" s="39"/>
@@ -13294,7 +13297,7 @@
     <row r="94" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A94" s="43"/>
       <c r="B94" s="55" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>30</v>
@@ -13303,7 +13306,7 @@
         <v>576</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F94" s="67">
         <v>1000</v>
@@ -13321,7 +13324,7 @@
     <row r="95" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A95" s="43"/>
       <c r="B95" s="55" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>30</v>
@@ -13330,7 +13333,7 @@
         <v>366</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F95" s="67">
         <v>1000</v>
@@ -13348,7 +13351,7 @@
     <row r="96" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A96" s="43"/>
       <c r="B96" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>30</v>
@@ -13373,7 +13376,7 @@
     <row r="97" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A97" s="43"/>
       <c r="B97" s="55" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>30</v>
@@ -13382,7 +13385,7 @@
         <v>576</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F97" s="67">
         <v>1000</v>
@@ -13400,7 +13403,7 @@
     <row r="98" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A98" s="43"/>
       <c r="B98" s="55" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>30</v>
@@ -13409,7 +13412,7 @@
         <v>253</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F98" s="67"/>
       <c r="G98" s="39"/>
@@ -13425,7 +13428,7 @@
     <row r="99" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A99" s="43"/>
       <c r="B99" s="55" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>30</v>
@@ -13434,7 +13437,7 @@
         <v>576</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F99" s="67">
         <v>3000</v>
@@ -13452,7 +13455,7 @@
     <row r="100" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A100" s="43"/>
       <c r="B100" s="55" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>30</v>
@@ -13461,7 +13464,7 @@
         <v>253</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F100" s="67"/>
       <c r="G100" s="39"/>
@@ -13477,7 +13480,7 @@
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A101" s="53"/>
       <c r="B101" s="37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>30</v>
@@ -13486,7 +13489,7 @@
         <v>576</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F101" s="67">
         <v>1000</v>
@@ -13504,7 +13507,7 @@
     <row r="102" s="4" customFormat="1" ht="42" customHeight="1" spans="1:15">
       <c r="A102" s="53"/>
       <c r="B102" s="37" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>30</v>
@@ -13513,7 +13516,7 @@
         <v>253</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F102" s="67"/>
       <c r="G102" s="39"/>
@@ -13529,7 +13532,7 @@
     <row r="103" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A103" s="43"/>
       <c r="B103" s="37" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>30</v>
@@ -13538,7 +13541,7 @@
         <v>576</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F103" s="67">
         <v>3000</v>
@@ -13556,7 +13559,7 @@
     <row r="104" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A104" s="43"/>
       <c r="B104" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>30</v>
@@ -13581,7 +13584,7 @@
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A105" s="53"/>
       <c r="B105" s="37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>30</v>
@@ -13590,7 +13593,7 @@
         <v>576</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F105" s="67">
         <v>1000</v>
@@ -13608,7 +13611,7 @@
     <row r="106" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A106" s="43"/>
       <c r="B106" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>30</v>
@@ -13633,7 +13636,7 @@
     <row r="107" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A107" s="43"/>
       <c r="B107" s="37" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>30</v>
@@ -13642,7 +13645,7 @@
         <v>576</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F107" s="67">
         <v>3000</v>
@@ -13660,7 +13663,7 @@
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A108" s="53"/>
       <c r="B108" s="37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C108" s="17" t="s">
         <v>30</v>
@@ -13669,7 +13672,7 @@
         <v>576</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F108" s="67">
         <v>1000</v>
@@ -13687,7 +13690,7 @@
     <row r="109" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A109" s="43"/>
       <c r="B109" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>30</v>
@@ -13712,7 +13715,7 @@
     <row r="110" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A110" s="43"/>
       <c r="B110" s="37" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C110" s="17" t="s">
         <v>30</v>
@@ -13721,7 +13724,7 @@
         <v>576</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F110" s="67">
         <v>3000</v>
@@ -13739,7 +13742,7 @@
     <row r="111" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A111" s="43"/>
       <c r="B111" s="37" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>30</v>
@@ -13748,10 +13751,10 @@
         <v>535</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F111" s="67" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
@@ -13765,7 +13768,7 @@
     </row>
     <row r="112" s="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A112" s="61" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B112" s="88" t="s">
         <v>849</v>
@@ -13790,7 +13793,7 @@
     </row>
     <row r="113" s="9" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B113" s="88" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C113" s="63" t="s">
         <v>30</v>
@@ -13799,7 +13802,7 @@
         <v>576</v>
       </c>
       <c r="E113" s="64" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F113" s="65">
         <v>2000</v>
@@ -13816,7 +13819,7 @@
     </row>
     <row r="114" s="10" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B114" s="89" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C114" s="90" t="s">
         <v>30</v>
@@ -13825,7 +13828,7 @@
         <v>253</v>
       </c>
       <c r="E114" s="92" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F114" s="64"/>
       <c r="G114" s="64"/>
@@ -13840,7 +13843,7 @@
     </row>
     <row r="115" s="10" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B115" s="89" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C115" s="90" t="s">
         <v>30</v>
@@ -13849,7 +13852,7 @@
         <v>253</v>
       </c>
       <c r="E115" s="92" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F115" s="64"/>
       <c r="G115" s="64"/>
@@ -13864,7 +13867,7 @@
     </row>
     <row r="116" s="10" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B116" s="89" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C116" s="90" t="s">
         <v>30</v>
@@ -13873,7 +13876,7 @@
         <v>253</v>
       </c>
       <c r="E116" s="92" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F116" s="64"/>
       <c r="G116" s="64"/>
@@ -13888,7 +13891,7 @@
     </row>
     <row r="117" s="10" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B117" s="89" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C117" s="90" t="s">
         <v>30</v>
@@ -13897,7 +13900,7 @@
         <v>253</v>
       </c>
       <c r="E117" s="92" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F117" s="64"/>
       <c r="G117" s="64"/>
@@ -13912,7 +13915,7 @@
     </row>
     <row r="118" s="10" customFormat="1" ht="28" spans="2:15">
       <c r="B118" s="62" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C118" s="63" t="s">
         <v>30</v>
@@ -13921,7 +13924,7 @@
         <v>363</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F118" s="64"/>
       <c r="G118" s="64"/>
@@ -13937,7 +13940,7 @@
     <row r="119" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A119" s="93"/>
       <c r="B119" s="62" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C119" s="63" t="s">
         <v>5</v>
@@ -13962,7 +13965,7 @@
     <row r="120" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A120" s="61"/>
       <c r="B120" s="88" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C120" s="63" t="s">
         <v>8</v>
@@ -13971,10 +13974,10 @@
         <v>633</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F120" s="96" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G120" s="94"/>
       <c r="H120" s="64"/>
@@ -13989,7 +13992,7 @@
     <row r="121" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A121" s="61"/>
       <c r="B121" s="62" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C121" s="63" t="s">
         <v>5</v>
@@ -13998,7 +14001,7 @@
         <v>536</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F121" s="96"/>
       <c r="G121" s="94"/>
@@ -14014,7 +14017,7 @@
     <row r="122" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A122" s="61"/>
       <c r="B122" s="62" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C122" s="63" t="s">
         <v>8</v>
@@ -14023,10 +14026,10 @@
         <v>656</v>
       </c>
       <c r="E122" s="96" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F122" s="97" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G122" s="94"/>
       <c r="H122" s="64"/>
@@ -14040,7 +14043,7 @@
     </row>
     <row r="123" s="10" customFormat="1" ht="28" spans="2:15">
       <c r="B123" s="62" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C123" s="63" t="s">
         <v>30</v>
@@ -14049,7 +14052,7 @@
         <v>363</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F123" s="64"/>
       <c r="G123" s="64"/>
@@ -14065,7 +14068,7 @@
     <row r="124" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A124" s="93"/>
       <c r="B124" s="62" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C124" s="63" t="s">
         <v>5</v>
@@ -14090,7 +14093,7 @@
     <row r="125" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="61"/>
       <c r="B125" s="88" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C125" s="63" t="s">
         <v>8</v>
@@ -14099,10 +14102,10 @@
         <v>633</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F125" s="96" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G125" s="94"/>
       <c r="H125" s="64"/>
@@ -14117,7 +14120,7 @@
     <row r="126" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A126" s="61"/>
       <c r="B126" s="62" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C126" s="63" t="s">
         <v>5</v>
@@ -14126,7 +14129,7 @@
         <v>536</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F126" s="96"/>
       <c r="G126" s="94"/>
@@ -14142,7 +14145,7 @@
     <row r="127" s="11" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A127" s="93"/>
       <c r="B127" s="62" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C127" s="63" t="s">
         <v>8</v>
@@ -14151,10 +14154,10 @@
         <v>656</v>
       </c>
       <c r="E127" s="96" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F127" s="97" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G127" s="64"/>
       <c r="H127" s="64"/>
@@ -14169,7 +14172,7 @@
     <row r="128" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A128" s="93"/>
       <c r="B128" s="62" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C128" s="63" t="s">
         <v>5</v>
@@ -14194,7 +14197,7 @@
     <row r="129" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A129" s="99"/>
       <c r="B129" s="62" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C129" s="63" t="s">
         <v>12</v>
@@ -14203,7 +14206,7 @@
         <v>337</v>
       </c>
       <c r="E129" s="96" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F129" s="62"/>
       <c r="G129" s="94"/>
@@ -14244,7 +14247,7 @@
     <row r="131" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A131" s="93"/>
       <c r="B131" s="62" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C131" s="63" t="s">
         <v>12</v>
@@ -14253,10 +14256,10 @@
         <v>349</v>
       </c>
       <c r="E131" s="96" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F131" s="96" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G131" s="94"/>
       <c r="H131" s="64"/>
@@ -14271,7 +14274,7 @@
     <row r="132" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A132" s="93"/>
       <c r="B132" s="62" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C132" s="63" t="s">
         <v>12</v>
@@ -14280,10 +14283,10 @@
         <v>349</v>
       </c>
       <c r="E132" s="96" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F132" s="96" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G132" s="94"/>
       <c r="H132" s="64"/>
@@ -14297,7 +14300,7 @@
     </row>
     <row r="133" s="6" customFormat="1" ht="28" spans="1:15">
       <c r="A133" s="43" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>779</v>
@@ -14414,7 +14417,7 @@
         <v>858</v>
       </c>
       <c r="F137" s="100" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G137" s="39"/>
       <c r="H137" s="39"/>
@@ -14453,7 +14456,7 @@
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:15">
       <c r="A139" s="61"/>
       <c r="B139" s="62" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C139" s="63" t="s">
         <v>8</v>
@@ -14462,10 +14465,10 @@
         <v>656</v>
       </c>
       <c r="E139" s="64" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G139" s="64"/>
       <c r="H139" s="64"/>
@@ -14480,7 +14483,7 @@
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A140" s="30"/>
       <c r="B140" s="37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C140" s="102" t="s">
         <v>30</v>
@@ -14489,7 +14492,7 @@
         <v>576</v>
       </c>
       <c r="E140" s="39" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F140" s="103">
         <v>1000</v>
@@ -14536,7 +14539,7 @@
     <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A142" s="30"/>
       <c r="B142" s="31" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C142" s="38" t="s">
         <v>30</v>
@@ -14545,7 +14548,7 @@
         <v>102</v>
       </c>
       <c r="E142" s="39" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F142" s="39" t="s">
         <v>859</v>
@@ -14577,7 +14580,7 @@
         <v>868</v>
       </c>
       <c r="F143" s="67" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G143" s="39"/>
       <c r="H143" s="39"/>
@@ -14592,7 +14595,7 @@
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A144" s="53"/>
       <c r="B144" s="37" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C144" s="17" t="s">
         <v>30</v>
@@ -14601,10 +14604,10 @@
         <v>319</v>
       </c>
       <c r="E144" s="41" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F144" s="67" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G144" s="39"/>
       <c r="H144" s="39"/>
@@ -14619,7 +14622,7 @@
     <row r="145" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A145" s="43"/>
       <c r="B145" s="37" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C145" s="17" t="s">
         <v>30</v>
@@ -14628,10 +14631,10 @@
         <v>706</v>
       </c>
       <c r="E145" s="67" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F145" s="39" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G145" s="39"/>
       <c r="H145" s="39"/>
@@ -14646,7 +14649,7 @@
     <row r="146" s="1" customFormat="1" ht="17" spans="1:15">
       <c r="A146" s="30"/>
       <c r="B146" s="37" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C146" s="17" t="s">
         <v>30</v>
@@ -14655,10 +14658,10 @@
         <v>319</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F146" s="104" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G146" s="39"/>
       <c r="H146" s="39"/>
@@ -14672,10 +14675,10 @@
     </row>
     <row r="147" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A147" s="61" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B147" s="62" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C147" s="63" t="s">
         <v>30</v>
@@ -14684,7 +14687,7 @@
         <v>576</v>
       </c>
       <c r="E147" s="96" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F147" s="62" t="s">
         <v>752</v>
@@ -14866,7 +14869,7 @@
     <row r="154" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A154" s="105"/>
       <c r="B154" s="62" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C154" s="63" t="s">
         <v>30</v>
@@ -15028,7 +15031,7 @@
     <row r="160" s="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A160" s="61"/>
       <c r="B160" s="88" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C160" s="63" t="s">
         <v>30</v>
@@ -15037,7 +15040,7 @@
         <v>253</v>
       </c>
       <c r="E160" s="64" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F160" s="65"/>
       <c r="G160" s="64"/>
@@ -15053,7 +15056,7 @@
     <row r="161" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A161" s="61"/>
       <c r="B161" s="88" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C161" s="63" t="s">
         <v>30</v>
@@ -15062,7 +15065,7 @@
         <v>576</v>
       </c>
       <c r="E161" s="64" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F161" s="65">
         <v>3000</v>
@@ -15080,7 +15083,7 @@
     <row r="162" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A162" s="61"/>
       <c r="B162" s="106" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C162" s="90" t="s">
         <v>30</v>
@@ -15089,7 +15092,7 @@
         <v>253</v>
       </c>
       <c r="E162" s="91" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F162" s="64"/>
       <c r="G162" s="64"/>
@@ -15105,7 +15108,7 @@
     <row r="163" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A163" s="61"/>
       <c r="B163" s="106" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C163" s="90" t="s">
         <v>30</v>
@@ -15114,7 +15117,7 @@
         <v>253</v>
       </c>
       <c r="E163" s="91" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F163" s="64"/>
       <c r="G163" s="64"/>
@@ -15130,7 +15133,7 @@
     <row r="164" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A164" s="61"/>
       <c r="B164" s="106" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C164" s="90" t="s">
         <v>30</v>
@@ -15139,7 +15142,7 @@
         <v>253</v>
       </c>
       <c r="E164" s="91" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F164" s="64"/>
       <c r="G164" s="64"/>
@@ -15155,7 +15158,7 @@
     <row r="165" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A165" s="61"/>
       <c r="B165" s="106" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C165" s="90" t="s">
         <v>30</v>
@@ -15164,7 +15167,7 @@
         <v>253</v>
       </c>
       <c r="E165" s="91" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F165" s="64"/>
       <c r="G165" s="64"/>
@@ -15180,7 +15183,7 @@
     <row r="166" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A166" s="61"/>
       <c r="B166" s="106" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C166" s="90" t="s">
         <v>30</v>
@@ -15189,7 +15192,7 @@
         <v>253</v>
       </c>
       <c r="E166" s="91" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F166" s="64"/>
       <c r="G166" s="64"/>
@@ -15205,7 +15208,7 @@
     <row r="167" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A167" s="61"/>
       <c r="B167" s="106" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C167" s="90" t="s">
         <v>30</v>
@@ -15214,7 +15217,7 @@
         <v>253</v>
       </c>
       <c r="E167" s="91" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F167" s="64"/>
       <c r="G167" s="64"/>
@@ -15230,7 +15233,7 @@
     <row r="168" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A168" s="61"/>
       <c r="B168" s="106" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C168" s="90" t="s">
         <v>30</v>
@@ -15239,7 +15242,7 @@
         <v>253</v>
       </c>
       <c r="E168" s="91" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F168" s="64"/>
       <c r="G168" s="64"/>
@@ -15255,7 +15258,7 @@
     <row r="169" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A169" s="61"/>
       <c r="B169" s="106" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C169" s="90" t="s">
         <v>30</v>
@@ -15264,7 +15267,7 @@
         <v>253</v>
       </c>
       <c r="E169" s="91" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F169" s="64"/>
       <c r="G169" s="64"/>
@@ -15280,7 +15283,7 @@
     <row r="170" s="13" customFormat="1" spans="1:15">
       <c r="A170" s="93"/>
       <c r="B170" s="106" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C170" s="90" t="s">
         <v>30</v>
@@ -15289,7 +15292,7 @@
         <v>253</v>
       </c>
       <c r="E170" s="91" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F170" s="64"/>
       <c r="G170" s="64"/>
@@ -15305,7 +15308,7 @@
     <row r="171" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A171" s="61"/>
       <c r="B171" s="88" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C171" s="63" t="s">
         <v>30</v>
@@ -15314,7 +15317,7 @@
         <v>102</v>
       </c>
       <c r="E171" s="64" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F171" s="64" t="s">
         <v>859</v>
@@ -15334,7 +15337,7 @@
     <row r="172" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A172" s="61"/>
       <c r="B172" s="88" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C172" s="63" t="s">
         <v>30</v>
@@ -15343,10 +15346,10 @@
         <v>711</v>
       </c>
       <c r="E172" s="64" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F172" s="64" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G172" s="64"/>
       <c r="H172" s="64"/>
@@ -15361,7 +15364,7 @@
     <row r="173" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A173" s="61"/>
       <c r="B173" s="88" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C173" s="63" t="s">
         <v>30</v>
@@ -15370,7 +15373,7 @@
         <v>576</v>
       </c>
       <c r="E173" s="64" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F173" s="64" t="s">
         <v>840</v>
@@ -15388,7 +15391,7 @@
     <row r="174" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A174" s="61"/>
       <c r="B174" s="88" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C174" s="63" t="s">
         <v>30</v>
@@ -15397,10 +15400,10 @@
         <v>493</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F174" s="64" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G174" s="64"/>
       <c r="H174" s="64"/>
@@ -15415,7 +15418,7 @@
     <row r="175" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A175" s="61"/>
       <c r="B175" s="88" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C175" s="63" t="s">
         <v>5</v>
@@ -15424,10 +15427,10 @@
         <v>49</v>
       </c>
       <c r="E175" s="64" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="G175" s="64"/>
       <c r="H175" s="64"/>
@@ -15466,7 +15469,7 @@
     <row r="177" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A177" s="61"/>
       <c r="B177" s="88" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C177" s="63" t="s">
         <v>30</v>
@@ -15475,10 +15478,10 @@
         <v>711</v>
       </c>
       <c r="E177" s="64" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F177" s="64" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G177" s="64"/>
       <c r="H177" s="64"/>
@@ -15493,7 +15496,7 @@
     <row r="178" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A178" s="61"/>
       <c r="B178" s="88" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C178" s="63" t="s">
         <v>30</v>
@@ -15502,7 +15505,7 @@
         <v>576</v>
       </c>
       <c r="E178" s="64" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F178" s="64" t="s">
         <v>840</v>
@@ -15520,7 +15523,7 @@
     <row r="179" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A179" s="61"/>
       <c r="B179" s="88" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C179" s="63" t="s">
         <v>30</v>
@@ -15529,10 +15532,10 @@
         <v>493</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F179" s="64" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G179" s="64"/>
       <c r="H179" s="64"/>
@@ -15547,7 +15550,7 @@
     <row r="180" s="13" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A180" s="61"/>
       <c r="B180" s="88" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C180" s="63" t="s">
         <v>5</v>
@@ -15556,10 +15559,10 @@
         <v>49</v>
       </c>
       <c r="E180" s="64" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G180" s="64"/>
       <c r="H180" s="64"/>
@@ -15598,7 +15601,7 @@
     <row r="182" s="10" customFormat="1" ht="15.5" spans="1:6">
       <c r="A182" s="61"/>
       <c r="B182" s="88" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C182" s="63" t="s">
         <v>12</v>
@@ -15607,7 +15610,7 @@
         <v>297</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F182" s="10" t="b">
         <v>0</v>
@@ -15615,7 +15618,7 @@
     </row>
     <row r="183" customFormat="1" ht="28" spans="1:4">
       <c r="A183" s="30" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B183" s="31" t="s">
         <v>849</v>
@@ -15656,7 +15659,7 @@
     <row r="185" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A185" s="30"/>
       <c r="B185" s="55" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C185" s="102" t="s">
         <v>30</v>
@@ -15665,7 +15668,7 @@
         <v>576</v>
       </c>
       <c r="E185" s="39" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F185" s="107">
         <v>1000</v>
@@ -15683,7 +15686,7 @@
     <row r="186" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A186" s="30"/>
       <c r="B186" s="55" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C186" s="102" t="s">
         <v>30</v>
@@ -15692,7 +15695,7 @@
         <v>253</v>
       </c>
       <c r="E186" s="39" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F186" s="107"/>
       <c r="G186" s="39"/>
@@ -15708,7 +15711,7 @@
     <row r="187" s="4" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A187" s="30"/>
       <c r="B187" s="55" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C187" s="102" t="s">
         <v>30</v>
@@ -15717,7 +15720,7 @@
         <v>363</v>
       </c>
       <c r="E187" s="39" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F187" s="107"/>
       <c r="G187" s="39"/>
@@ -18708,7 +18711,7 @@
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N49:N51 N101 N79:N83 N67:N73 N75:N77 N61:N63 N58:N59 N56">
+  <conditionalFormatting sqref="N49:N51 N56 N58:N59 N61:N63 N67:N73 N79:N83 N101 N75:N77">
     <cfRule type="beginsWith" dxfId="0" priority="245" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
     </cfRule>
